--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="473">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1802,10 +1802,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1891,6 +1891,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1899,9 +1906,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1915,29 +1928,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1951,16 +1958,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,9 +1996,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1997,39 +2020,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2084,13 +2084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2102,7 +2108,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,7 +2132,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,43 +2186,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,31 +2234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,55 +2246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,6 +2603,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2614,6 +2623,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2644,24 +2662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2680,8 +2680,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2689,148 +2689,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4478,11 +4478,11 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F187" sqref="F187"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -5781,8 +5781,12 @@
       <c r="I35" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
+      <c r="J35" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L35" s="37"/>
       <c r="M35" s="37" t="s">
         <v>54</v>
@@ -5838,8 +5842,12 @@
       <c r="I36" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
+      <c r="J36" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L36" s="37"/>
       <c r="M36" s="37" t="s">
         <v>54</v>
@@ -5895,8 +5903,12 @@
       <c r="I37" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
+      <c r="J37" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37" t="s">
         <v>54</v>
@@ -5952,8 +5964,12 @@
       <c r="I38" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
+      <c r="J38" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37" t="s">
         <v>54</v>
@@ -6009,8 +6025,12 @@
       <c r="I39" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
+      <c r="J39" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L39" s="37"/>
       <c r="M39" s="37" t="s">
         <v>54</v>
@@ -6066,8 +6086,12 @@
       <c r="I40" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
+      <c r="J40" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37" t="s">
         <v>54</v>
@@ -6123,8 +6147,12 @@
       <c r="I41" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
+      <c r="J41" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L41" s="37"/>
       <c r="M41" s="37" t="s">
         <v>54</v>
@@ -6180,8 +6208,12 @@
       <c r="I42" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
+      <c r="J42" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="L42" s="37"/>
       <c r="M42" s="37" t="s">
         <v>54</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="473">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1801,11 +1801,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1891,8 +1891,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1907,28 +1908,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1939,37 +1919,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1989,8 +1938,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2013,25 +2020,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2084,6 +2084,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2102,91 +2228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2198,13 +2246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,55 +2258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2588,6 +2588,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2599,15 +2617,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2630,23 +2639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2677,11 +2671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2689,118 +2689,118 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2809,28 +2809,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5782,11 +5782,9 @@
         <v>100</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K35" s="37"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37" t="s">
         <v>54</v>
@@ -5843,11 +5841,9 @@
         <v>106</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K36" s="37"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37" t="s">
         <v>54</v>
@@ -5904,11 +5900,9 @@
         <v>111</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K37" s="37"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37" t="s">
         <v>54</v>
@@ -5965,11 +5959,9 @@
         <v>116</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K38" s="37"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37" t="s">
         <v>54</v>
@@ -6026,11 +6018,9 @@
         <v>121</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K39" s="37"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37" t="s">
         <v>54</v>
@@ -6087,11 +6077,9 @@
         <v>127</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K40" s="37"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37" t="s">
         <v>54</v>
@@ -6148,11 +6136,9 @@
         <v>133</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K41" s="37"/>
       <c r="L41" s="37"/>
       <c r="M41" s="37" t="s">
         <v>54</v>
@@ -6209,11 +6195,9 @@
         <v>138</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37" t="s">
         <v>54</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="478">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -519,6 +519,9 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5462f94282^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ATTENZIONE MANCA IL COMUNE DI RESIDENZA</t>
+  </si>
+  <si>
     <t>CORREZIONE DEI DATI MANCANTI</t>
   </si>
   <si>
@@ -538,6 +541,9 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5947020c59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ATTENZIONE MANCA IL NOME DEL PAZIENTE</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT11_KO</t>
   </si>
   <si>
@@ -554,6 +560,9 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5af3c789e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ATTENZIONE MANCA IL SESSO DEL PAZIENTE</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT12_KO</t>
   </si>
   <si>
@@ -570,6 +579,9 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.a559631b18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ATTENZIONE PRIORITA' DELLA RICHIESTA NON CORRETTA</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT13_KO</t>
   </si>
   <si>
@@ -584,6 +596,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.2902cd053c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ATTENZIONE ERRORE SULL'IDENTIFICATIVO UNIVOCO DELLA PRESCRIZIONE</t>
   </si>
   <si>
     <t>INSERIMENTO DEI DATI MANCANTI</t>
@@ -1801,11 +1816,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1900,10 +1915,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1919,6 +1957,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1946,23 +1999,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,15 +2028,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1997,41 +2044,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2084,7 +2099,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,13 +2159,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,13 +2195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,67 +2213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,7 +2231,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,49 +2267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,6 +2612,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2621,52 +2662,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2685,146 +2685,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4478,11 +4493,11 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -5792,7 +5807,9 @@
       <c r="N35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O35" s="37"/>
+      <c r="O35" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="P35" s="37" t="s">
         <v>54</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>54</v>
       </c>
       <c r="S35" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T35" s="37"/>
       <c r="U35" s="44"/>
@@ -5823,22 +5840,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F36" s="34">
         <v>45751</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J36" s="37" t="s">
         <v>54</v>
@@ -5851,7 +5868,9 @@
       <c r="N36" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O36" s="37"/>
+      <c r="O36" s="37" t="s">
+        <v>108</v>
+      </c>
       <c r="P36" s="37" t="s">
         <v>54</v>
       </c>
@@ -5862,7 +5881,7 @@
         <v>54</v>
       </c>
       <c r="S36" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T36" s="37"/>
       <c r="U36" s="44"/>
@@ -5882,22 +5901,22 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F37" s="34">
         <v>45751</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J37" s="37" t="s">
         <v>54</v>
@@ -5910,7 +5929,9 @@
       <c r="N37" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O37" s="37"/>
+      <c r="O37" s="37" t="s">
+        <v>114</v>
+      </c>
       <c r="P37" s="37" t="s">
         <v>54</v>
       </c>
@@ -5921,7 +5942,7 @@
         <v>54</v>
       </c>
       <c r="S37" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T37" s="37"/>
       <c r="U37" s="44"/>
@@ -5941,22 +5962,22 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F38" s="34">
         <v>45751</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J38" s="37" t="s">
         <v>54</v>
@@ -5969,7 +5990,9 @@
       <c r="N38" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O38" s="37"/>
+      <c r="O38" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="P38" s="37" t="s">
         <v>54</v>
       </c>
@@ -5980,7 +6003,7 @@
         <v>54</v>
       </c>
       <c r="S38" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T38" s="37"/>
       <c r="U38" s="44"/>
@@ -6000,22 +6023,22 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F39" s="34">
         <v>45751</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J39" s="37" t="s">
         <v>54</v>
@@ -6028,7 +6051,9 @@
       <c r="N39" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O39" s="37"/>
+      <c r="O39" s="37" t="s">
+        <v>126</v>
+      </c>
       <c r="P39" s="37" t="s">
         <v>54</v>
       </c>
@@ -6039,7 +6064,7 @@
         <v>54</v>
       </c>
       <c r="S39" s="37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="T39" s="37"/>
       <c r="U39" s="44"/>
@@ -6059,22 +6084,22 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F40" s="34">
         <v>45751</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J40" s="37" t="s">
         <v>54</v>
@@ -6098,7 +6123,7 @@
         <v>58</v>
       </c>
       <c r="S40" s="37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T40" s="37"/>
       <c r="U40" s="44"/>
@@ -6118,22 +6143,22 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F41" s="34">
         <v>45751</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J41" s="37" t="s">
         <v>54</v>
@@ -6157,7 +6182,7 @@
         <v>58</v>
       </c>
       <c r="S41" s="37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T41" s="37"/>
       <c r="U41" s="44"/>
@@ -6177,22 +6202,22 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F42" s="34">
         <v>45751</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J42" s="37" t="s">
         <v>54</v>
@@ -6216,7 +6241,7 @@
         <v>58</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T42" s="37"/>
       <c r="U42" s="44"/>
@@ -6236,10 +6261,10 @@
         <v>61</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -6273,10 +6298,10 @@
         <v>61</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -6310,10 +6335,10 @@
         <v>61</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -6347,10 +6372,10 @@
         <v>61</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -6384,10 +6409,10 @@
         <v>61</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -6421,10 +6446,10 @@
         <v>61</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -6458,10 +6483,10 @@
         <v>61</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -6495,10 +6520,10 @@
         <v>61</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -6532,10 +6557,10 @@
         <v>61</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -6569,10 +6594,10 @@
         <v>61</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -6606,10 +6631,10 @@
         <v>65</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -6643,10 +6668,10 @@
         <v>65</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -6680,10 +6705,10 @@
         <v>65</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -6717,10 +6742,10 @@
         <v>65</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -6754,10 +6779,10 @@
         <v>65</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -6791,10 +6816,10 @@
         <v>65</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -6828,10 +6853,10 @@
         <v>65</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -6865,10 +6890,10 @@
         <v>65</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -6902,10 +6927,10 @@
         <v>65</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -6939,10 +6964,10 @@
         <v>65</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -6976,10 +7001,10 @@
         <v>65</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -7013,10 +7038,10 @@
         <v>65</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -7050,10 +7075,10 @@
         <v>65</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -7087,10 +7112,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -7124,10 +7149,10 @@
         <v>65</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -7161,10 +7186,10 @@
         <v>65</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -7198,10 +7223,10 @@
         <v>65</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
@@ -7235,10 +7260,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -7272,10 +7297,10 @@
         <v>69</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -7309,10 +7334,10 @@
         <v>69</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -7346,10 +7371,10 @@
         <v>69</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -7383,10 +7408,10 @@
         <v>69</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -7420,10 +7445,10 @@
         <v>69</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -7457,10 +7482,10 @@
         <v>69</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
@@ -7494,10 +7519,10 @@
         <v>69</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
@@ -7531,10 +7556,10 @@
         <v>69</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -7568,10 +7593,10 @@
         <v>69</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
@@ -7605,10 +7630,10 @@
         <v>69</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
@@ -7642,10 +7667,10 @@
         <v>71</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -7679,10 +7704,10 @@
         <v>71</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -7716,10 +7741,10 @@
         <v>71</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
@@ -7753,10 +7778,10 @@
         <v>71</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -7790,10 +7815,10 @@
         <v>71</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -7827,10 +7852,10 @@
         <v>71</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
@@ -7864,10 +7889,10 @@
         <v>71</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
@@ -7901,10 +7926,10 @@
         <v>71</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
@@ -7938,10 +7963,10 @@
         <v>71</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -7975,10 +8000,10 @@
         <v>71</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -8012,10 +8037,10 @@
         <v>71</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -8049,10 +8074,10 @@
         <v>71</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -8086,10 +8111,10 @@
         <v>71</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -8123,10 +8148,10 @@
         <v>74</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -8160,10 +8185,10 @@
         <v>74</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -8197,10 +8222,10 @@
         <v>74</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
@@ -8234,10 +8259,10 @@
         <v>74</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -8271,10 +8296,10 @@
         <v>74</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -8308,10 +8333,10 @@
         <v>74</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -8345,10 +8370,10 @@
         <v>74</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -8382,10 +8407,10 @@
         <v>74</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -8419,10 +8444,10 @@
         <v>74</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -8456,10 +8481,10 @@
         <v>74</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -8493,10 +8518,10 @@
         <v>74</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -8530,10 +8555,10 @@
         <v>74</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -8567,10 +8592,10 @@
         <v>74</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -8604,10 +8629,10 @@
         <v>74</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -8641,10 +8666,10 @@
         <v>74</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -8678,10 +8703,10 @@
         <v>74</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -8715,10 +8740,10 @@
         <v>74</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -8752,10 +8777,10 @@
         <v>74</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -8789,10 +8814,10 @@
         <v>74</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
@@ -8826,10 +8851,10 @@
         <v>74</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -8863,10 +8888,10 @@
         <v>74</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -8900,10 +8925,10 @@
         <v>74</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -8937,10 +8962,10 @@
         <v>74</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -8974,10 +8999,10 @@
         <v>67</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -9011,10 +9036,10 @@
         <v>67</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -9048,10 +9073,10 @@
         <v>67</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -9085,10 +9110,10 @@
         <v>67</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -9122,10 +9147,10 @@
         <v>67</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
@@ -9159,10 +9184,10 @@
         <v>67</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
@@ -9196,10 +9221,10 @@
         <v>67</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
@@ -9233,10 +9258,10 @@
         <v>67</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
@@ -9270,10 +9295,10 @@
         <v>67</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -9307,10 +9332,10 @@
         <v>67</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
@@ -9344,10 +9369,10 @@
         <v>67</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="35"/>
@@ -9381,10 +9406,10 @@
         <v>67</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
@@ -9418,10 +9443,10 @@
         <v>67</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
@@ -9455,10 +9480,10 @@
         <v>67</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -9492,10 +9517,10 @@
         <v>67</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
@@ -9529,10 +9554,10 @@
         <v>67</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="35"/>
@@ -9566,10 +9591,10 @@
         <v>63</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
@@ -9603,10 +9628,10 @@
         <v>63</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
@@ -9640,10 +9665,10 @@
         <v>63</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="35"/>
@@ -9677,10 +9702,10 @@
         <v>63</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
@@ -9714,10 +9739,10 @@
         <v>63</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
@@ -9751,10 +9776,10 @@
         <v>63</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="35"/>
@@ -9788,10 +9813,10 @@
         <v>63</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
@@ -9825,10 +9850,10 @@
         <v>63</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
@@ -9862,10 +9887,10 @@
         <v>63</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="35"/>
@@ -9899,10 +9924,10 @@
         <v>63</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
@@ -9936,10 +9961,10 @@
         <v>63</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="35"/>
@@ -9973,10 +9998,10 @@
         <v>63</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="35"/>
@@ -10010,10 +10035,10 @@
         <v>63</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
@@ -10047,10 +10072,10 @@
         <v>63</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
@@ -10084,10 +10109,10 @@
         <v>63</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
@@ -10121,10 +10146,10 @@
         <v>48</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F148" s="34">
         <v>45751</v>
@@ -10136,7 +10161,7 @@
         <v>58</v>
       </c>
       <c r="K148" s="37" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L148" s="37"/>
       <c r="M148" s="37"/>
@@ -10164,10 +10189,10 @@
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F149" s="34">
         <v>45751</v>
@@ -10179,7 +10204,7 @@
         <v>58</v>
       </c>
       <c r="K149" s="37" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L149" s="37"/>
       <c r="M149" s="37"/>
@@ -10204,13 +10229,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -10241,13 +10266,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
@@ -10278,13 +10303,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -10315,10 +10340,10 @@
         <v>47</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E153" s="33" t="s">
         <v>57</v>
@@ -10352,10 +10377,10 @@
         <v>47</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E154" s="33" t="s">
         <v>77</v>
@@ -10389,13 +10414,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
@@ -10426,13 +10451,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
@@ -10463,13 +10488,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
@@ -10500,13 +10525,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
@@ -10537,13 +10562,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="35"/>
@@ -10574,13 +10599,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="35"/>
@@ -10611,13 +10636,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="35"/>
@@ -10648,13 +10673,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
@@ -10685,13 +10710,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -10722,13 +10747,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -10759,13 +10784,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -10799,10 +10824,10 @@
         <v>63</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
@@ -10836,10 +10861,10 @@
         <v>63</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="35"/>
@@ -10873,10 +10898,10 @@
         <v>65</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="35"/>
@@ -10910,10 +10935,10 @@
         <v>65</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E169" s="33" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -10947,10 +10972,10 @@
         <v>67</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -10984,10 +11009,10 @@
         <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
@@ -11021,10 +11046,10 @@
         <v>61</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F172" s="35"/>
       <c r="G172" s="35"/>
@@ -11058,10 +11083,10 @@
         <v>61</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
@@ -11095,22 +11120,22 @@
         <v>48</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F174" s="34">
         <v>45751</v>
       </c>
       <c r="G174" s="35" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H174" s="35" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J174" s="37" t="s">
         <v>54</v>
@@ -11142,10 +11167,10 @@
         <v>74</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
@@ -11179,10 +11204,10 @@
         <v>74</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
@@ -11216,10 +11241,10 @@
         <v>71</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -11253,10 +11278,10 @@
         <v>71</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E178" s="33" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -11290,10 +11315,10 @@
         <v>69</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E179" s="33" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -11327,10 +11352,10 @@
         <v>69</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E180" s="33" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -11361,13 +11386,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E181" s="33" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -11401,10 +11426,10 @@
         <v>67</v>
       </c>
       <c r="D182" s="46" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E182" s="46" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
@@ -11438,10 +11463,10 @@
         <v>65</v>
       </c>
       <c r="D183" s="46" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F183" s="46"/>
       <c r="G183" s="46"/>
@@ -11475,10 +11500,10 @@
         <v>74</v>
       </c>
       <c r="D184" s="46" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F184" s="46"/>
       <c r="G184" s="46"/>
@@ -11512,10 +11537,10 @@
         <v>69</v>
       </c>
       <c r="D185" s="46" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E185" s="49" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F185" s="46"/>
       <c r="G185" s="46"/>
@@ -11549,10 +11574,10 @@
         <v>71</v>
       </c>
       <c r="D186" s="46" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E186" s="49" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F186" s="46"/>
       <c r="G186" s="46"/>
@@ -11586,10 +11611,10 @@
         <v>48</v>
       </c>
       <c r="D187" s="46" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E187" s="49" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="46"/>
@@ -11599,7 +11624,7 @@
         <v>58</v>
       </c>
       <c r="K187" s="37" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L187" s="46"/>
       <c r="M187" s="46"/>
@@ -11627,10 +11652,10 @@
         <v>61</v>
       </c>
       <c r="D188" s="46" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E188" s="48" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F188" s="46"/>
       <c r="G188" s="46"/>
@@ -11664,10 +11689,10 @@
         <v>67</v>
       </c>
       <c r="D189" s="46" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F189" s="46"/>
       <c r="G189" s="46"/>
@@ -11701,10 +11726,10 @@
         <v>63</v>
       </c>
       <c r="D190" s="46" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F190" s="46"/>
       <c r="G190" s="46"/>
@@ -11735,13 +11760,13 @@
         <v>47</v>
       </c>
       <c r="C191" s="47" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D191" s="46" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F191" s="46"/>
       <c r="G191" s="46"/>
@@ -15929,17 +15954,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -15949,12 +15974,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -15964,7 +15989,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -15997,22 +16022,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
@@ -16020,13 +16045,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
@@ -16034,13 +16059,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
@@ -16048,13 +16073,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C4" s="6">
         <v>446.447</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -16062,13 +16087,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -16076,13 +16101,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16090,13 +16115,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16104,13 +16129,13 @@
         <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16118,41 +16143,41 @@
         <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="4:4">
@@ -17144,7 +17169,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -17152,7 +17177,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11940" activeTab="2"/>
+    <workbookView windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -281,13 +281,13 @@
 </t>
   </si>
   <si>
-    <t>2025-04-04T08:51:17Z</t>
-  </si>
-  <si>
-    <t>d27f57173dd4e4d8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.f99a1ec223^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:03:37Z</t>
+  </si>
+  <si>
+    <t>40c955d249a28745a7d79bbd0418f258</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.9fea09c6bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -510,13 +510,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T08:54:29Z</t>
-  </si>
-  <si>
-    <t>eda0211fb14a92bc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5462f94282^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:06:24Z</t>
+  </si>
+  <si>
+    <t>ce2dbf04bf119209c0b89d9ccd9ec523</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.e2b26f8051^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ATTENZIONE MANCA IL COMUNE DI RESIDENZA</t>
@@ -532,13 +532,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T08:56:00Z</t>
-  </si>
-  <si>
-    <t>1a218d90be1b0cf8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5947020c59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:08:02Z</t>
+  </si>
+  <si>
+    <t>24943690b6d99363d7e3193728e8a1df</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.cba3a4bc8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ATTENZIONE MANCA IL NOME DEL PAZIENTE</t>
@@ -551,13 +551,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T08:57:09Z</t>
-  </si>
-  <si>
-    <t>fdb561586376109d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5af3c789e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:09:16Z</t>
+  </si>
+  <si>
+    <t>ea789b4583569c72c376460af9afe2d3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.3dbdfcd50a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ATTENZIONE MANCA IL SESSO DEL PAZIENTE</t>
@@ -570,13 +570,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T08:58:07Z</t>
-  </si>
-  <si>
-    <t>a8c1f9c572109d80</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.a559631b18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:10:26Z</t>
+  </si>
+  <si>
+    <t>33be0b7a97c7c4d626ec6771b2c64a0c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.51db126cbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ATTENZIONE PRIORITA' DELLA RICHIESTA NON CORRETTA</t>
@@ -589,13 +589,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T08:59:28Z</t>
-  </si>
-  <si>
-    <t>c0af832938f2f730</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.2902cd053c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:11:24Z</t>
+  </si>
+  <si>
+    <t>7c8ae8ab860b98e1f4eced9461d09c9e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.4043cf18cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ATTENZIONE ERRORE SULL'IDENTIFICATIVO UNIVOCO DELLA PRESCRIZIONE</t>
@@ -611,13 +611,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T09:00:27Z</t>
-  </si>
-  <si>
-    <t>a52bb230139dcc22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.69246858c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:12:21Z</t>
+  </si>
+  <si>
+    <t>65b7f36a06fe71bca965d340b8157beb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.b40e844989^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>MODIFICA DELLA PROGRAMMAZIONE</t>
@@ -630,13 +630,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T09:01:49Z</t>
-  </si>
-  <si>
-    <t>1a8148aaf1110e99</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.ff57c73e9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:13:18Z</t>
+  </si>
+  <si>
+    <t>7fbf9aa54e7714342294e1aa644ebb0f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.f68c9c6a69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
@@ -646,13 +646,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-04-04T09:02:52Z</t>
-  </si>
-  <si>
-    <t>4640f76852ae6910</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.4382e2d80d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:14:13Z</t>
+  </si>
+  <si>
+    <t>ed85c21baa7c707660546343eb9f3cd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.683ad8df8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1584,13 +1584,13 @@
 </t>
   </si>
   <si>
-    <t>2025-04-04T09:04:03Z</t>
-  </si>
-  <si>
-    <t>d7f6c2c4aa2b127d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.d697eb9d16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-09T09:15:20Z</t>
+  </si>
+  <si>
+    <t>241af028a1a86cf562547741689fa3bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.e432ca63ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1818,8 +1818,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
@@ -1914,32 +1914,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1952,24 +1928,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1991,24 +1952,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2022,15 +2006,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2044,7 +2020,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2099,168 +2099,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2273,7 +2111,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,11 +2603,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2647,21 +2692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2670,176 +2700,146 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4493,11 +4493,11 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -4800,7 +4800,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>51</v>
@@ -5455,7 +5455,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
@@ -5785,7 +5785,7 @@
         <v>97</v>
       </c>
       <c r="F35" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>98</v>
@@ -5846,7 +5846,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>105</v>
@@ -5907,7 +5907,7 @@
         <v>110</v>
       </c>
       <c r="F37" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>111</v>
@@ -5968,7 +5968,7 @@
         <v>116</v>
       </c>
       <c r="F38" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>117</v>
@@ -6029,7 +6029,7 @@
         <v>122</v>
       </c>
       <c r="F39" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>123</v>
@@ -6090,7 +6090,7 @@
         <v>129</v>
       </c>
       <c r="F40" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>130</v>
@@ -6149,7 +6149,7 @@
         <v>135</v>
       </c>
       <c r="F41" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>136</v>
@@ -6208,7 +6208,7 @@
         <v>140</v>
       </c>
       <c r="F42" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>141</v>
@@ -10151,9 +10151,7 @@
       <c r="E148" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="F148" s="34">
-        <v>45751</v>
-      </c>
+      <c r="F148" s="34"/>
       <c r="G148" s="35"/>
       <c r="H148" s="35"/>
       <c r="I148" s="38"/>
@@ -10194,9 +10192,7 @@
       <c r="E149" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="F149" s="34">
-        <v>45751</v>
-      </c>
+      <c r="F149" s="34"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
       <c r="I149" s="38"/>
@@ -11126,7 +11122,7 @@
         <v>407</v>
       </c>
       <c r="F174" s="34">
-        <v>45751</v>
+        <v>45786</v>
       </c>
       <c r="G174" s="35" t="s">
         <v>408</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12120" activeTab="2"/>
+    <workbookView windowWidth="29865" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -281,13 +281,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-09T09:03:37Z</t>
-  </si>
-  <si>
-    <t>40c955d249a28745a7d79bbd0418f258</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.9fea09c6bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-16T12:00:56Z</t>
+  </si>
+  <si>
+    <t>0f509e4d059bd4fecb41fb454c2f7a4b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.02158f87a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -1589,13 +1589,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-09T09:15:20Z</t>
-  </si>
-  <si>
-    <t>241af028a1a86cf562547741689fa3bb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.e432ca63ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-16T12:04:00Z</t>
+  </si>
+  <si>
+    <t>619e8a2fff9992c6c8114bf8794b72e2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.b0cf93cd19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1842,10 +1842,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1933,9 +1933,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1949,45 +1955,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,14 +1972,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2011,6 +1988,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2025,8 +2009,54 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2040,38 +2070,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2118,7 +2118,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,19 +2196,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,37 +2286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,109 +2298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,30 +2622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2657,6 +2633,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2676,27 +2667,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2719,152 +2693,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4500,11 +4500,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -4807,7 +4807,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="33">
-        <v>45786</v>
+        <v>45793</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>51</v>
@@ -11108,7 +11108,7 @@
         <v>409</v>
       </c>
       <c r="F173" s="35">
-        <v>45786</v>
+        <v>45793</v>
       </c>
       <c r="G173" s="35" t="s">
         <v>410</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -281,13 +281,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-16T12:00:56Z</t>
-  </si>
-  <si>
-    <t>0f509e4d059bd4fecb41fb454c2f7a4b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.02158f87a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-20T11:28:38Z</t>
+  </si>
+  <si>
+    <t>6657f045beaa46606ee4dbc767bd88fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.c654cf8897^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -1589,13 +1589,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-16T12:04:00Z</t>
-  </si>
-  <si>
-    <t>619e8a2fff9992c6c8114bf8794b72e2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.b0cf93cd19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-20T11:31:50Z</t>
+  </si>
+  <si>
+    <t>27925977b3e4febd63ace7173b7be9fe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5c62dbe855^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1841,11 +1841,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1933,22 +1933,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1962,32 +1964,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2000,63 +1986,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2071,7 +2009,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2118,7 +2118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,97 +2154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,13 +2184,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,7 +2220,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,25 +2250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,7 +2262,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,36 +2622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2676,6 +2646,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2695,27 +2706,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2723,118 +2723,118 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2843,28 +2843,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4504,7 +4504,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -4807,7 +4807,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="33">
-        <v>45793</v>
+        <v>45797</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>51</v>
@@ -11108,7 +11108,7 @@
         <v>409</v>
       </c>
       <c r="F173" s="35">
-        <v>45793</v>
+        <v>45797</v>
       </c>
       <c r="G173" s="35" t="s">
         <v>410</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -281,13 +281,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-20T11:28:38Z</t>
-  </si>
-  <si>
-    <t>6657f045beaa46606ee4dbc767bd88fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.c654cf8897^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-21T17:02:46Z</t>
+  </si>
+  <si>
+    <t>72af06245609df790ab4838bbfaf7d8c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.ada818c981^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -1589,13 +1589,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-20T11:31:50Z</t>
-  </si>
-  <si>
-    <t>27925977b3e4febd63ace7173b7be9fe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.5c62dbe855^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-21T17:23:16Z</t>
+  </si>
+  <si>
+    <t>b0b335b83a2bd62cf5740145123d9525</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.36b752291d7ee2dc9561b9ac59cd51f261a178cbc78d7ab2c2415ef6cdeef302.12dbe02e35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1841,10 +1841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
@@ -1933,9 +1933,71 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1949,6 +2011,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1957,18 +2027,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1987,52 +2057,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2045,33 +2070,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2118,19 +2118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,7 +2136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,7 +2154,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,85 +2274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,43 +2298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,26 +2622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2657,6 +2648,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2690,8 +2690,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2699,23 +2714,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2723,148 +2723,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4504,7 +4504,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I150" sqref="I150"/>
+      <selection pane="bottomRight" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -4807,7 +4807,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="33">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>51</v>
@@ -11108,7 +11108,7 @@
         <v>409</v>
       </c>
       <c r="F173" s="35">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="G173" s="35" t="s">
         <v>410</v>

--- a/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111XXXX646502CIAFFI_SRL/CIAFFI_SRL/LUITECOLAB/1.0/report-checklist.xlsx
@@ -281,13 +281,13 @@
 </t>
   </si>
   <si>
-    <t>2025-05-21T17:02:46Z</t>
-  </si>
-  <si>
-    <t>72af06245609df790ab4838bbfaf7d8c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.ada818c981^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-22T13:48:23Z</t>
+  </si>
+  <si>
+    <t>e9f7d206a5ae691b5c2fe0bc0b92a83c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.25413009308a4bae125585955d301f246db200fe149e896215630000f3b5c431.a5d629f814^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -1841,11 +1841,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1933,9 +1933,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1949,9 +1972,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,6 +2002,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1973,18 +2017,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1997,67 +2048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2070,8 +2061,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2118,7 +2118,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,7 +2166,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,37 +2226,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,13 +2256,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,97 +2298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,6 +2622,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2652,15 +2676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2678,35 +2693,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2719,152 +2708,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4504,7 +4504,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H173" sqref="H173"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4533333333333" defaultRowHeight="15" customHeight="1"/>
@@ -4807,7 +4807,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="33">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>51</v>
